--- a/test_checklist.xlsx
+++ b/test_checklist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t xml:space="preserve">Раздел</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Проверить поиск по библиотеке (по названию)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скачать бесплатный документ и открыть офлайн</t>
   </si>
   <si>
     <t xml:space="preserve">Попробовать открыть документ с пометкой «подписка» → экран подписки</t>
@@ -221,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +248,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,13 +306,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -503,438 +515,477 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="0" t="s">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/test_checklist.xlsx
+++ b/test_checklist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t xml:space="preserve">Раздел</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">Навигация по главам свайпом и кнопками «вперёд/назад»</t>
   </si>
   <si>
+    <t xml:space="preserve">Ссылки работают</t>
+  </si>
+  <si>
     <t xml:space="preserve">Поиск внутри документа открывается и подсвечивает результаты</t>
   </si>
   <si>
@@ -91,12 +94,30 @@
     <t xml:space="preserve">Контекстное меню абзаца: Поделиться</t>
   </si>
   <si>
-    <t xml:space="preserve">Контекстное меню абзаца: Прослушать (TTS)</t>
+    <t xml:space="preserve">Контекстное меню абзаца: Прослушать (TTS) ОБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Глава/Звук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настройки звука работают</t>
   </si>
   <si>
     <t xml:space="preserve">Контекстное меню абзаца: Заметка/выделение</t>
   </si>
   <si>
+    <t xml:space="preserve">Контекстное меню абзаца: Заметка очистка ошибка коректно работает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контекстное меню абзаца: Заметка добавление без выделения текста  ошибка коректно работает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контекстное меню абзаца: Заметка очистка работает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контекстное меню абзаца: Заметка добавление работает</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверить работу палитры цветов и сохранение выделений</t>
   </si>
   <si>
@@ -116,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">Удаление заметки требует подтверждения и отображает уведомление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспорт в pdf работает</t>
   </si>
   <si>
     <t xml:space="preserve">Поиск</t>
@@ -250,7 +274,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -306,7 +329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,6 +340,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -515,16 +542,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="89.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.44"/>
   </cols>
   <sheetData>
@@ -703,10 +730,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -715,67 +742,67 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>35</v>
@@ -784,7 +811,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
@@ -793,34 +820,34 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
@@ -829,7 +856,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>42</v>
@@ -838,7 +865,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>43</v>
@@ -847,7 +874,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
@@ -901,25 +928,25 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>54</v>
@@ -928,7 +955,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>55</v>
@@ -937,7 +964,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>56</v>
@@ -946,46 +973,108 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
